--- a/linki.xlsx
+++ b/linki.xlsx
@@ -486,70 +486,70 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://promocje.gry-online.pl/</t>
+          <t>https://www.gry-online.pl/newsroom/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.gry-online.pl/newsroom/</t>
+          <t>https://www.gry-online.pl/gry/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.gry-online.pl/gry/</t>
+          <t>https://tvgry.pl/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://tvgry.pl/</t>
+          <t>https://www.gry-online.pl/poradniki-do-gier.asp</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.gry-online.pl/poradniki-do-gier.asp</t>
+          <t>https://www.gry-online.pl/czytaj-o-grach.asp</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.gry-online.pl/czytaj-o-grach.asp</t>
+          <t>https://www.gry-online.pl/hardware/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.gry-online.pl/hardware/</t>
+          <t>https://www.gry-online.pl/download.asp</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.gry-online.pl/download.asp</t>
+          <t>https://darmowe.gry-online.pl/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://darmowe.gry-online.pl/</t>
+          <t>https://sklep.gry-online.pl/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://sklep.gry-online.pl/</t>
+          <t>https://promocje.gry-online.pl/</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Najlepsze gry 2020 roku,</t>
+          <t>Najlepsze video</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://www.gry-online.pl/S018.asp?ID=2701</t>
+          <t>https://tvgry.pl/temat.asp?TEM=9229</t>
         </is>
       </c>
     </row>
